--- a/data_processed/20250730/BTCUSDVOLSURFACE_REGULARIZED_20250730.xlsx
+++ b/data_processed/20250730/BTCUSDVOLSURFACE_REGULARIZED_20250730.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6625,7 +6625,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6654,7 +6654,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6683,7 +6683,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -18018,7 +18018,7 @@
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18105,7 +18105,7 @@
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -28220,7 +28220,7 @@
       </c>
       <c r="G1103" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -34313,7 +34313,7 @@
       </c>
       <c r="G1344" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -34678,7 +34678,7 @@
       </c>
       <c r="G1357" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -37213,7 +37213,7 @@
       </c>
       <c r="G1452" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -37242,7 +37242,7 @@
       </c>
       <c r="G1453" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -37441,7 +37441,7 @@
       </c>
       <c r="G1460" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -38310,7 +38310,7 @@
       </c>
       <c r="G1493" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -38509,7 +38509,7 @@
       </c>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -38567,7 +38567,7 @@
       </c>
       <c r="G1502" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -39514,7 +39514,7 @@
       </c>
       <c r="G1537" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -45972,7 +45972,7 @@
       </c>
       <c r="G1791" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250730/BTCUSDVOLSURFACE_REGULARIZED_20250730.xlsx
+++ b/data_processed/20250730/BTCUSDVOLSURFACE_REGULARIZED_20250730.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CA,CS,BF</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6393,7 +6393,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6683,7 +6683,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>CA,CS,BF</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -28220,7 +28220,7 @@
       </c>
       <c r="G1103" t="inlineStr">
         <is>
-          <t>CA,CS,BF</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -33693,7 +33693,7 @@
       </c>
       <c r="G1320" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -34284,7 +34284,7 @@
       </c>
       <c r="G1343" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34429,7 +34429,7 @@
       </c>
       <c r="G1348" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34487,7 +34487,7 @@
       </c>
       <c r="G1350" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34678,7 +34678,7 @@
       </c>
       <c r="G1357" t="inlineStr">
         <is>
-          <t>CA,CS,BF</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -34707,7 +34707,7 @@
       </c>
       <c r="G1358" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -35302,7 +35302,7 @@
       </c>
       <c r="G1381" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35447,7 +35447,7 @@
       </c>
       <c r="G1386" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35476,7 +35476,7 @@
       </c>
       <c r="G1387" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36308,7 +36308,7 @@
       </c>
       <c r="G1419" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36482,7 +36482,7 @@
       </c>
       <c r="G1425" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36656,7 +36656,7 @@
       </c>
       <c r="G1431" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36710,7 +36710,7 @@
       </c>
       <c r="G1433" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -37018,7 +37018,7 @@
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -37213,7 +37213,7 @@
       </c>
       <c r="G1452" t="inlineStr">
         <is>
-          <t>CA,CS,BF</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -37520,7 +37520,7 @@
       </c>
       <c r="G1463" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37578,7 +37578,7 @@
       </c>
       <c r="G1465" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -38194,7 +38194,7 @@
       </c>
       <c r="G1489" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38223,7 +38223,7 @@
       </c>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38252,7 +38252,7 @@
       </c>
       <c r="G1491" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38281,7 +38281,7 @@
       </c>
       <c r="G1492" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38310,7 +38310,7 @@
       </c>
       <c r="G1493" t="inlineStr">
         <is>
-          <t>CA,CS,BF</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -38339,7 +38339,7 @@
       </c>
       <c r="G1494" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38397,7 +38397,7 @@
       </c>
       <c r="G1496" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38509,7 +38509,7 @@
       </c>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>CA,CS,BF</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -38567,7 +38567,7 @@
       </c>
       <c r="G1502" t="inlineStr">
         <is>
-          <t>CA,CS,BF</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -39141,7 +39141,7 @@
       </c>
       <c r="G1524" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -39514,7 +39514,7 @@
       </c>
       <c r="G1537" t="inlineStr">
         <is>
-          <t>CA,CS,BF</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -42686,7 +42686,7 @@
       </c>
       <c r="G1661" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42769,7 +42769,7 @@
       </c>
       <c r="G1664" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46754,7 +46754,7 @@
       </c>
       <c r="G1821" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46895,7 +46895,7 @@
       </c>
       <c r="G1826" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
